--- a/UTM Machine Technical Specification/UTM Specification_draft.xlsx
+++ b/UTM Machine Technical Specification/UTM Specification_draft.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Specification" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>Specification(s)</t>
   </si>
@@ -37,9 +39,6 @@
 Depth of load frame: ≥ 550 mm</t>
   </si>
   <si>
-    <t>Stiffness of the frame: ≥ 60 kN/mm</t>
-  </si>
-  <si>
     <t>Load frame should fulfil the CE conformity guidelines a per 2006/42/EG</t>
   </si>
   <si>
@@ -58,13 +57,6 @@
   </si>
   <si>
     <t>A failsafe emergency stop switch should be provided</t>
-  </si>
-  <si>
-    <t>Load
-Measurement</t>
-  </si>
-  <si>
-    <t>Load accuracy: 0.5% to ISO 7500-1 or equivalent ASTM standard</t>
   </si>
   <si>
     <t>Overload capacity without permanent zero shift: 150% of the capacity or
@@ -152,41 +144,13 @@
     <t>Total crosshead travel: ≥1350 mm</t>
   </si>
   <si>
-    <t>Crosshead Speed range: 0.0005-1000 mm/min (or equivalent, providing a range of ~7 orders)</t>
-  </si>
-  <si>
     <t>The moving crosshead shall be driven by precision screws with zero backlash.</t>
   </si>
   <si>
-    <r>
-      <t>Accuracy of crosshead speed:  ±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="SymbolMT"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>0.05% of set speed measured over full speed range or better</t>
-    </r>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
     <t>Drive system positioning and repetition accuracy: ±2 µm or better</t>
-  </si>
-  <si>
-    <t>oad range: 0.4 to 100% of the capacity
-Force measurement should confirm to ASTM E4, ISO7500-1 Standards</t>
   </si>
   <si>
     <t>oad cells should be able to resist the unnecessary parasitic influences
@@ -350,11 +314,106 @@
     </r>
   </si>
   <si>
-    <t>A single 1000 kN capacity pancake type strain gauge-based load cell for
-both tension and compression.</t>
-  </si>
-  <si>
     <t>Capacity: 1000 kN or more</t>
+  </si>
+  <si>
+    <t>Load range: 20 to 1000 Kn 
+Force measurement should confirm to ASTM E4, ISO7500-1 Standards</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Maximum Capacity</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>Measuring Range</t>
+  </si>
+  <si>
+    <t>Load Resulution</t>
+  </si>
+  <si>
+    <t>Laod Range with Accuracy of Measurement +/- 1%</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resulution of Piston Movement (Displacement)</t>
+  </si>
+  <si>
+    <t>Clearence for Tensile Test</t>
+  </si>
+  <si>
+    <t>Clearence for Cpmpression  Test</t>
+  </si>
+  <si>
+    <t>Clearence Between Column</t>
+  </si>
+  <si>
+    <t>Ram Stroke</t>
+  </si>
+  <si>
+    <t>Straining/Piston Speedd (at No Load)</t>
+  </si>
+  <si>
+    <t>mm/min</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Volt</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Clamping jaws for Round Specimen of Diameter</t>
+  </si>
+  <si>
+    <t>Clamping jaws for flat Specimen of thickness</t>
+  </si>
+  <si>
+    <t>0-1000</t>
+  </si>
+  <si>
+    <t>20-1000</t>
+  </si>
+  <si>
+    <t>50-850</t>
+  </si>
+  <si>
+    <t>0-850</t>
+  </si>
+  <si>
+    <t>0-80</t>
+  </si>
+  <si>
+    <t>400-440</t>
+  </si>
+  <si>
+    <t>10 to 25</t>
+  </si>
+  <si>
+    <t>25 to 5</t>
+  </si>
+  <si>
+    <t>0-22</t>
+  </si>
+  <si>
+    <t>22-24</t>
+  </si>
+  <si>
+    <t>Warrantee and
+post-supply 
+services</t>
   </si>
 </sst>
 </file>
@@ -475,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -505,6 +564,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -520,8 +588,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,418 +904,753 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="15" t="s">
-        <v>26</v>
+      <c r="C1" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8">
+      <c r="A2" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="47.25">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:4" ht="46.8">
+      <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:4" ht="15.6">
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="31.5">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:4" ht="31.2">
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:4" ht="15.6">
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" s="18"/>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="18"/>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.2">
+      <c r="A9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="15"/>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="2" t="s">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="31.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="31.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="31.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="31.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="31.5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="15"/>
-      <c r="B10" s="2" t="s">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.6">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="31.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="31.5">
-      <c r="A12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="14"/>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="14"/>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="14"/>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="31.5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="14"/>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="31.5">
-      <c r="A18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="31.5">
-      <c r="A19" s="14"/>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:3" ht="15.6" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="31.5">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:3" ht="15.6">
+      <c r="A21" s="17"/>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="31.5">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:3" ht="15.6">
+      <c r="A22" s="17"/>
       <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="62.4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="46.8">
+      <c r="A24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="31.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="62.4">
+      <c r="A27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.6">
+      <c r="A28" s="15"/>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="46.8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="31.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="78">
+      <c r="A31" s="16"/>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.6">
+      <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="14"/>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="31.5">
-      <c r="A24" s="14"/>
-      <c r="B24" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="14"/>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75">
-      <c r="A27" s="14"/>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="63">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="47.25">
-      <c r="A29" s="14" t="s">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="31.2">
+      <c r="A33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="31.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="14"/>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" ht="31.5">
-      <c r="A31" s="14"/>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="63">
-      <c r="A32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75">
-      <c r="A33" s="12"/>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="47.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" ht="31.5">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:3" ht="46.8">
+      <c r="A35" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" ht="78.75">
-      <c r="A36" s="13"/>
+    <row r="36" spans="1:3" ht="62.4">
+      <c r="A36" s="15"/>
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:3" ht="31.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" ht="31.5">
+    <row r="38" spans="1:3" ht="46.95" customHeight="1">
       <c r="A38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.6">
+      <c r="A39" s="15"/>
+      <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="31.5">
-      <c r="A39" s="14"/>
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" ht="47.25">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:3" ht="62.4">
+      <c r="A40" s="16"/>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" ht="78">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="63">
-      <c r="A41" s="12"/>
-      <c r="B41" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" ht="31.5">
-      <c r="A42" s="13"/>
-      <c r="B42" s="2" t="s">
-        <v>46</v>
+    <row r="42" spans="1:3" ht="24.6" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" ht="46.9" customHeight="1">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:3" ht="37.200000000000003" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75">
-      <c r="A44" s="12"/>
+    <row r="44" spans="1:3" ht="31.2">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" ht="63">
-      <c r="A45" s="13"/>
+    <row r="45" spans="1:3" ht="69.599999999999994" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="63">
-      <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" ht="24.6" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="37.15" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" ht="31.5">
-      <c r="A49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" ht="69.599999999999994" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6">
+      <c r="A4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="11">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6">
+      <c r="A5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6">
+      <c r="A6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6">
+      <c r="A7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6">
+      <c r="A8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6">
+      <c r="A9" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="11">
+        <v>750</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="11">
+        <v>250</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6">
+      <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6">
+      <c r="A14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.6">
+      <c r="A18" s="21"/>
+      <c r="B18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="46.8">
+      <c r="A19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="21"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="31.2">
+      <c r="A21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="31.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="46.8">
+      <c r="A23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="62.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="31.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="46.95" customHeight="1">
+      <c r="A26" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.6">
+      <c r="A27" s="29"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="62.4">
+      <c r="A28" s="30"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="62.4">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="24.6" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="37.200000000000003" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>